--- a/biology/Botanique/Averrhoa/Averrhoa.xlsx
+++ b/biology/Botanique/Averrhoa/Averrhoa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Averrhoa est un genre d'arbres de la famille des Oxalidacées. Ce genre a été dédié par Linné à Averroes, astronome et philosophe du XIIe siècle.
 </t>
@@ -511,12 +523,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un genre de plante à fleurs complètes, hermaphrodites en œillet, composées d'un calice à cinq sépales relevés, et de cinq pétales lancéolés, dont les angles sont droits et le limbe rabattu.
 Les fleurs portent dix étamines en deux rangs d'inégale grandeur.
 L'ovaire est surmonté de cinq styles.
-Le fruit est charnu, arrondi, marqué de cinq angles, divisé en cinq loges, et contenant plusieurs semences anguleuses, séparées par des membranes[1].
+Le fruit est charnu, arrondi, marqué de cinq angles, divisé en cinq loges, et contenant plusieurs semences anguleuses, séparées par des membranes.
 ↑ Carl von Linné - Gen. plant. - 1753.
 </t>
         </is>
@@ -546,7 +560,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Voici les espèces recensées par l'IPNI :
 Averrhoa acida L. : voir Phyllanthus acidus ( L. ) Skeels
@@ -590,7 +606,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Deux espèces - Averrhoa carambola (le carambolier) et Averrhoa bilimbi (arbre à cornichon) - produisent des fruits largement consommés de par le monde.
 </t>
